--- a/molgenis-model-registry/src/test/resources/VCF-MODEL.xlsx
+++ b/molgenis-model-registry/src/test/resources/VCF-MODEL.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10240" yWindow="2480" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="3260" yWindow="4120" windowWidth="25600" windowHeight="12460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="entities" sheetId="1" r:id="rId1"/>
     <sheet name="attributes" sheetId="2" r:id="rId2"/>
     <sheet name="packages" sheetId="3" r:id="rId3"/>
+    <sheet name="tags" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="136">
   <si>
     <t>name</t>
   </si>
@@ -399,6 +400,36 @@
   </si>
   <si>
     <t>Sample identifier for each sample located in the vcf file. Used as a reference by the VCF table.</t>
+  </si>
+  <si>
+    <t>vcf_spec</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t>objectIRI</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>relationLabel</t>
+  </si>
+  <si>
+    <t>Specification</t>
+  </si>
+  <si>
+    <t>codeSystem</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>relationIRI</t>
+  </si>
+  <si>
+    <t>http://molgenis.org/biobankconnect/link</t>
   </si>
 </sst>
 </file>
@@ -454,8 +485,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -507,7 +542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="51">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -531,6 +566,8 @@
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -554,6 +591,8 @@
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -953,7 +992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
@@ -1684,14 +1723,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="25.1640625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="49" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1716,7 +1756,71 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="45.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" t="s">
         <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/molgenis-model-registry/src/test/resources/VCF-MODEL.xlsx
+++ b/molgenis-model-registry/src/test/resources/VCF-MODEL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="4120" windowWidth="25600" windowHeight="12460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="3260" yWindow="4120" windowWidth="25600" windowHeight="12460" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="entities" sheetId="1" r:id="rId1"/>
@@ -485,8 +485,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -542,7 +546,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="55">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -568,6 +572,8 @@
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -593,6 +599,8 @@
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1723,7 +1731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1774,8 +1782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/molgenis-model-registry/src/test/resources/VCF-MODEL.xlsx
+++ b/molgenis-model-registry/src/test/resources/VCF-MODEL.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="4120" windowWidth="25600" windowHeight="12460" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="4200" yWindow="1560" windowWidth="25600" windowHeight="12460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="entities" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="140">
   <si>
     <t>name</t>
   </si>
@@ -430,6 +430,18 @@
   </si>
   <si>
     <t>http://molgenis.org/biobankconnect/link</t>
+  </si>
+  <si>
+    <t>vcf_biosharing</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>http://www.biosharing.org/bsg-000270</t>
+  </si>
+  <si>
+    <t>vcf_spec,vcf_biosharing</t>
   </si>
 </sst>
 </file>
@@ -485,8 +497,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -546,7 +562,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="59">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -574,6 +590,8 @@
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -601,6 +619,8 @@
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1731,7 +1751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1764,7 +1784,7 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1780,15 +1800,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="45.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1828,6 +1852,26 @@
         <v>133</v>
       </c>
       <c r="F2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" t="s">
         <v>135</v>
       </c>
     </row>

--- a/molgenis-model-registry/src/test/resources/VCF-MODEL.xlsx
+++ b/molgenis-model-registry/src/test/resources/VCF-MODEL.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="1560" windowWidth="25600" windowHeight="12460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1100" yWindow="240" windowWidth="28640" windowHeight="18760" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="entities" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="143">
   <si>
     <t>name</t>
   </si>
@@ -442,6 +442,15 @@
   </si>
   <si>
     <t>vcf_spec,vcf_biosharing</t>
+  </si>
+  <si>
+    <t>VCF_Vcf_fields</t>
+  </si>
+  <si>
+    <t>VCF_Info_fields</t>
+  </si>
+  <si>
+    <t>VCF_Sample_fields</t>
   </si>
 </sst>
 </file>
@@ -1020,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1087,7 +1096,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
@@ -1107,7 +1116,7 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
@@ -1121,7 +1130,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -1135,7 +1144,7 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -1149,7 +1158,7 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -1163,7 +1172,7 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
@@ -1177,7 +1186,7 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
@@ -1191,7 +1200,7 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
@@ -1205,13 +1214,13 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s">
         <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="P10" t="s">
         <v>80</v>
@@ -1222,7 +1231,7 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
@@ -1236,13 +1245,13 @@
         <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="C12" t="s">
         <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="P12" t="s">
         <v>89</v>
@@ -1253,7 +1262,7 @@
         <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="C13" t="s">
         <v>31</v>
@@ -1273,7 +1282,7 @@
         <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="C14" t="s">
         <v>31</v>
@@ -1287,7 +1296,7 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="C15" t="s">
         <v>104</v>
@@ -1301,7 +1310,7 @@
         <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="C16" t="s">
         <v>103</v>
@@ -1315,7 +1324,7 @@
         <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="C17" t="s">
         <v>104</v>
@@ -1329,7 +1338,7 @@
         <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
@@ -1343,7 +1352,7 @@
         <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="C19" t="s">
         <v>31</v>
@@ -1357,7 +1366,7 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="C20" t="s">
         <v>31</v>
@@ -1371,7 +1380,7 @@
         <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="C21" t="s">
         <v>104</v>
@@ -1385,7 +1394,7 @@
         <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
@@ -1399,7 +1408,7 @@
         <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="C23" t="s">
         <v>60</v>
@@ -1413,7 +1422,7 @@
         <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="C24" t="s">
         <v>60</v>
@@ -1427,7 +1436,7 @@
         <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="C25" t="s">
         <v>104</v>
@@ -1441,7 +1450,7 @@
         <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="C26" t="s">
         <v>104</v>
@@ -1455,7 +1464,7 @@
         <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="C27" t="s">
         <v>104</v>
@@ -1469,7 +1478,7 @@
         <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="C28" t="s">
         <v>31</v>
@@ -1483,7 +1492,7 @@
         <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="C29" t="s">
         <v>60</v>
@@ -1497,7 +1506,7 @@
         <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="C30" t="s">
         <v>60</v>
@@ -1511,7 +1520,7 @@
         <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="C31" t="s">
         <v>60</v>
@@ -1525,7 +1534,7 @@
         <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="C32" t="s">
         <v>87</v>
@@ -1539,7 +1548,7 @@
         <v>106</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="C33" t="s">
         <v>31</v>
@@ -1559,7 +1568,7 @@
         <v>107</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="C34" t="s">
         <v>31</v>
@@ -1573,7 +1582,7 @@
         <v>108</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="C35" t="s">
         <v>104</v>
@@ -1587,7 +1596,7 @@
         <v>109</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="C36" t="s">
         <v>31</v>
@@ -1601,7 +1610,7 @@
         <v>110</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="C37" t="s">
         <v>103</v>
@@ -1615,7 +1624,7 @@
         <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="C38" t="s">
         <v>31</v>
@@ -1629,7 +1638,7 @@
         <v>112</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="C39" t="s">
         <v>104</v>
@@ -1643,7 +1652,7 @@
         <v>113</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="C40" t="s">
         <v>103</v>
@@ -1657,7 +1666,7 @@
         <v>114</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="C41" t="s">
         <v>104</v>
@@ -1671,7 +1680,7 @@
         <v>115</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="C42" t="s">
         <v>104</v>
@@ -1685,7 +1694,7 @@
         <v>116</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="C43" t="s">
         <v>104</v>
@@ -1699,7 +1708,7 @@
         <v>117</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="C44" t="s">
         <v>104</v>
@@ -1713,7 +1722,7 @@
         <v>118</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="C45" t="s">
         <v>104</v>
@@ -1727,7 +1736,7 @@
         <v>119</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="C46" t="s">
         <v>104</v>
@@ -1751,7 +1760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
